--- a/csv/Consolidado_Victoria_Malina.xlsx
+++ b/csv/Consolidado_Victoria_Malina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Python_Projects\inventariovlm\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92125955-3AA6-4E97-9D65-BC72CA8B85F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7B56AD-379E-4814-B487-64D96FF2F529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{456784E2-72F5-4FE4-81BF-722AEB61F79B}"/>
   </bookViews>
@@ -1610,10 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0AB408-1871-4816-B544-911864576FF3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A516" sqref="A516:XFD516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -6211,7 +6212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -6431,7 +6432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -6739,7 +6740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -7487,7 +7488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -8059,7 +8060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -8323,7 +8324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -8587,7 +8588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -9288,7 +9289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -9508,7 +9509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -9552,7 +9553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -9640,7 +9641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -9728,7 +9729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -10432,7 +10433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10520,7 +10521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10608,7 +10609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -11400,7 +11401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -11444,7 +11445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -11488,7 +11489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -11840,7 +11841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -11884,7 +11885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -12896,7 +12897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -12984,7 +12985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>11</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>11</v>
       </c>
@@ -13380,7 +13381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>11</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -13644,7 +13645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -13864,7 +13865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -13908,7 +13909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -14216,7 +14217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -14524,7 +14525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -14612,7 +14613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -14788,7 +14789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -15052,7 +15053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -15140,7 +15141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>11</v>
       </c>
@@ -15404,7 +15405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -15712,7 +15713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -15800,7 +15801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -16372,7 +16373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -16416,7 +16417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -16460,7 +16461,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -16548,7 +16549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -16592,7 +16593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -16680,7 +16681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -16768,7 +16769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -16812,7 +16813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -16856,7 +16857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -16900,7 +16901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -16944,7 +16945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>11</v>
       </c>
@@ -16988,7 +16989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>11</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>121</v>
       </c>
@@ -17076,7 +17077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>121</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>121</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>121</v>
       </c>
@@ -17208,7 +17209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>121</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>121</v>
       </c>
@@ -17296,7 +17297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>121</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>121</v>
       </c>
@@ -17384,7 +17385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>121</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>121</v>
       </c>
@@ -17516,7 +17517,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>121</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>121</v>
       </c>
@@ -17604,7 +17605,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -17692,7 +17693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>121</v>
       </c>
@@ -17736,7 +17737,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>121</v>
       </c>
@@ -17780,7 +17781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>121</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>121</v>
       </c>
@@ -17868,7 +17869,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>121</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>121</v>
       </c>
@@ -17956,7 +17957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>121</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>121</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>121</v>
       </c>
@@ -18088,7 +18089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>121</v>
       </c>
@@ -18132,7 +18133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>121</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>121</v>
       </c>
@@ -18264,7 +18265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>121</v>
       </c>
@@ -18305,7 +18306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>121</v>
       </c>
@@ -18349,7 +18350,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>121</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>121</v>
       </c>
@@ -18437,7 +18438,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>121</v>
       </c>
@@ -18481,7 +18482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>121</v>
       </c>
@@ -18525,7 +18526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>121</v>
       </c>
@@ -18569,7 +18570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>121</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>121</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>121</v>
       </c>
@@ -18701,7 +18702,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>121</v>
       </c>
@@ -18745,7 +18746,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>121</v>
       </c>
@@ -18789,7 +18790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>121</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>121</v>
       </c>
@@ -18877,7 +18878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>121</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>121</v>
       </c>
@@ -18965,7 +18966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>121</v>
       </c>
@@ -19009,7 +19010,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>121</v>
       </c>
@@ -19053,7 +19054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>121</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>121</v>
       </c>
@@ -19141,7 +19142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>121</v>
       </c>
@@ -19185,7 +19186,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>121</v>
       </c>
@@ -19229,7 +19230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>121</v>
       </c>
@@ -19273,7 +19274,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>121</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>121</v>
       </c>
@@ -19361,7 +19362,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>121</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>121</v>
       </c>
@@ -19449,7 +19450,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>121</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>121</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>121</v>
       </c>
@@ -19581,7 +19582,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>121</v>
       </c>
@@ -19625,7 +19626,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>121</v>
       </c>
@@ -19669,7 +19670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>121</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>121</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>121</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>121</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>121</v>
       </c>
@@ -19889,7 +19890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>121</v>
       </c>
@@ -19933,7 +19934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>121</v>
       </c>
@@ -19977,7 +19978,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>121</v>
       </c>
@@ -20021,7 +20022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>121</v>
       </c>
@@ -20065,7 +20066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>121</v>
       </c>
@@ -20109,7 +20110,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>121</v>
       </c>
@@ -20153,7 +20154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>121</v>
       </c>
@@ -20241,7 +20242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>121</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>121</v>
       </c>
@@ -20329,7 +20330,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>121</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>121</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>121</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>121</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>121</v>
       </c>
@@ -20549,7 +20550,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>121</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>121</v>
       </c>
@@ -20725,7 +20726,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>121</v>
       </c>
@@ -20769,7 +20770,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>121</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>121</v>
       </c>
@@ -20857,7 +20858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>121</v>
       </c>
@@ -20901,7 +20902,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>121</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>121</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>121</v>
       </c>
@@ -21033,7 +21034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>121</v>
       </c>
@@ -21077,7 +21078,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>121</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>121</v>
       </c>
@@ -21165,7 +21166,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>121</v>
       </c>
@@ -21209,7 +21210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>121</v>
       </c>
@@ -21253,7 +21254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>121</v>
       </c>
@@ -21297,7 +21298,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>121</v>
       </c>
@@ -21341,7 +21342,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>121</v>
       </c>
@@ -21385,7 +21386,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>121</v>
       </c>
@@ -21429,7 +21430,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>121</v>
       </c>
@@ -21517,7 +21518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>121</v>
       </c>
@@ -21561,7 +21562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>121</v>
       </c>
@@ -21605,7 +21606,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>121</v>
       </c>
@@ -21649,7 +21650,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>121</v>
       </c>
@@ -21693,7 +21694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>121</v>
       </c>
@@ -21737,7 +21738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>121</v>
       </c>
@@ -21781,7 +21782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>121</v>
       </c>
@@ -21825,7 +21826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>121</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>121</v>
       </c>
@@ -21913,7 +21914,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>121</v>
       </c>
@@ -21957,7 +21958,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>121</v>
       </c>
@@ -22001,7 +22002,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>121</v>
       </c>
@@ -22045,7 +22046,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>121</v>
       </c>
@@ -22089,7 +22090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>121</v>
       </c>
@@ -22133,7 +22134,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>121</v>
       </c>
@@ -22177,7 +22178,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>121</v>
       </c>
@@ -22221,7 +22222,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>121</v>
       </c>
@@ -22265,7 +22266,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>121</v>
       </c>
@@ -22309,7 +22310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>121</v>
       </c>
@@ -22353,7 +22354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>121</v>
       </c>
@@ -22397,7 +22398,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -22441,7 +22442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>121</v>
       </c>
@@ -22485,7 +22486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>121</v>
       </c>
@@ -22529,7 +22530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>121</v>
       </c>
@@ -22573,7 +22574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>121</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>121</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>121</v>
       </c>
@@ -22705,7 +22706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>121</v>
       </c>
@@ -22749,7 +22750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>121</v>
       </c>
@@ -22793,7 +22794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>121</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>121</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>121</v>
       </c>
@@ -22925,7 +22926,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>121</v>
       </c>
@@ -23057,7 +23058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>121</v>
       </c>
@@ -23101,7 +23102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>121</v>
       </c>
@@ -23145,7 +23146,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>121</v>
       </c>
@@ -23189,7 +23190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>121</v>
       </c>
@@ -23233,7 +23234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>121</v>
       </c>
@@ -23277,7 +23278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>121</v>
       </c>
@@ -23365,7 +23366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>121</v>
       </c>
@@ -23409,7 +23410,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>121</v>
       </c>
@@ -23453,7 +23454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>121</v>
       </c>
@@ -23497,7 +23498,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>121</v>
       </c>
@@ -23541,7 +23542,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>121</v>
       </c>
@@ -23585,7 +23586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>121</v>
       </c>
@@ -23629,7 +23630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>121</v>
       </c>
@@ -23673,7 +23674,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>121</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>121</v>
       </c>
@@ -23761,7 +23762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>121</v>
       </c>
@@ -23805,7 +23806,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>121</v>
       </c>
@@ -23849,7 +23850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>121</v>
       </c>
@@ -23893,7 +23894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>121</v>
       </c>
@@ -23937,7 +23938,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>121</v>
       </c>
@@ -23981,7 +23982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>121</v>
       </c>
@@ -24025,7 +24026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>121</v>
       </c>
@@ -24069,7 +24070,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>121</v>
       </c>
@@ -24113,7 +24114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>121</v>
       </c>
@@ -24157,7 +24158,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>121</v>
       </c>
@@ -24201,7 +24202,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>121</v>
       </c>
@@ -24245,7 +24246,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>121</v>
       </c>
@@ -24333,7 +24334,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>121</v>
       </c>
@@ -24377,7 +24378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>121</v>
       </c>
@@ -24421,7 +24422,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>121</v>
       </c>
@@ -24465,7 +24466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>121</v>
       </c>
@@ -24509,7 +24510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>121</v>
       </c>
@@ -24553,7 +24554,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>121</v>
       </c>
@@ -24597,7 +24598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>121</v>
       </c>
@@ -24641,7 +24642,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>121</v>
       </c>
@@ -24685,7 +24686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>121</v>
       </c>
@@ -24729,7 +24730,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>121</v>
       </c>
@@ -24773,7 +24774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>121</v>
       </c>
@@ -24817,7 +24818,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>121</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>121</v>
       </c>
@@ -24905,7 +24906,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>121</v>
       </c>
@@ -24949,7 +24950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>121</v>
       </c>
@@ -24993,7 +24994,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>121</v>
       </c>
@@ -25037,7 +25038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>121</v>
       </c>
@@ -25081,7 +25082,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>121</v>
       </c>
@@ -25125,7 +25126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>121</v>
       </c>
@@ -25169,7 +25170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>121</v>
       </c>
@@ -25213,7 +25214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>121</v>
       </c>
@@ -25257,7 +25258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>121</v>
       </c>
@@ -25301,7 +25302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>121</v>
       </c>
@@ -25345,7 +25346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>121</v>
       </c>
@@ -25389,7 +25390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>121</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>121</v>
       </c>
@@ -25477,7 +25478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>121</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>121</v>
       </c>
@@ -25565,7 +25566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>121</v>
       </c>
@@ -25609,7 +25610,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>121</v>
       </c>
@@ -25653,7 +25654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>121</v>
       </c>
@@ -25697,7 +25698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>121</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>121</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>121</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>121</v>
       </c>
@@ -25873,7 +25874,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>121</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>121</v>
       </c>
@@ -25961,7 +25962,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>121</v>
       </c>
@@ -26005,7 +26006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>121</v>
       </c>
@@ -26049,7 +26050,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>121</v>
       </c>
@@ -26093,7 +26094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>121</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>121</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>121</v>
       </c>
@@ -26225,7 +26226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>121</v>
       </c>
@@ -26269,7 +26270,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>121</v>
       </c>
@@ -26313,7 +26314,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>121</v>
       </c>
@@ -26357,7 +26358,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>121</v>
       </c>
@@ -26401,7 +26402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>121</v>
       </c>
@@ -26445,7 +26446,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>121</v>
       </c>
@@ -26489,7 +26490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>121</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>121</v>
       </c>
@@ -26577,7 +26578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>121</v>
       </c>
@@ -26621,7 +26622,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>121</v>
       </c>
@@ -26665,7 +26666,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>121</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>121</v>
       </c>
@@ -26753,7 +26754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>121</v>
       </c>
@@ -26797,7 +26798,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>121</v>
       </c>
@@ -26841,7 +26842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>121</v>
       </c>
@@ -26885,7 +26886,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>121</v>
       </c>
@@ -26929,7 +26930,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>121</v>
       </c>
@@ -26973,7 +26974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>121</v>
       </c>
@@ -27017,7 +27018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>121</v>
       </c>
@@ -27061,7 +27062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>121</v>
       </c>
@@ -27105,7 +27106,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>121</v>
       </c>
@@ -27149,7 +27150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>121</v>
       </c>
@@ -27193,7 +27194,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>121</v>
       </c>
@@ -27237,7 +27238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>121</v>
       </c>
@@ -27281,7 +27282,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>121</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>121</v>
       </c>
@@ -27369,7 +27370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>121</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>121</v>
       </c>
@@ -27457,7 +27458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>121</v>
       </c>
@@ -27501,7 +27502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>121</v>
       </c>
@@ -27545,7 +27546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>121</v>
       </c>
@@ -27589,7 +27590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>121</v>
       </c>
@@ -27633,7 +27634,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>121</v>
       </c>
@@ -27677,7 +27678,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>121</v>
       </c>
@@ -27721,7 +27722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>121</v>
       </c>
@@ -27765,7 +27766,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>121</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>121</v>
       </c>
@@ -27853,7 +27854,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>121</v>
       </c>
@@ -27897,7 +27898,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>121</v>
       </c>
@@ -27941,7 +27942,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>121</v>
       </c>
@@ -27985,7 +27986,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>121</v>
       </c>
@@ -28029,7 +28030,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>121</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>121</v>
       </c>
@@ -28117,7 +28118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>121</v>
       </c>
@@ -28161,7 +28162,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>121</v>
       </c>
@@ -28205,7 +28206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>121</v>
       </c>
@@ -28249,7 +28250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>121</v>
       </c>
@@ -28293,7 +28294,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>121</v>
       </c>
@@ -28337,7 +28338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>121</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>121</v>
       </c>
@@ -28425,7 +28426,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>121</v>
       </c>
@@ -28469,7 +28470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>121</v>
       </c>
@@ -28513,7 +28514,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>121</v>
       </c>
@@ -28557,7 +28558,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>121</v>
       </c>
@@ -28601,7 +28602,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>121</v>
       </c>
@@ -28645,7 +28646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>121</v>
       </c>
@@ -28689,7 +28690,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>121</v>
       </c>
@@ -28733,7 +28734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>121</v>
       </c>
@@ -28777,7 +28778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>121</v>
       </c>
@@ -28821,7 +28822,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>121</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>121</v>
       </c>
@@ -28909,7 +28910,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>121</v>
       </c>
@@ -28953,7 +28954,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>121</v>
       </c>
@@ -28997,7 +28998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>121</v>
       </c>
@@ -29041,7 +29042,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>121</v>
       </c>
@@ -29085,7 +29086,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>121</v>
       </c>
@@ -29129,7 +29130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>121</v>
       </c>
@@ -29173,7 +29174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>121</v>
       </c>
@@ -29217,7 +29218,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>121</v>
       </c>
@@ -29261,7 +29262,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>121</v>
       </c>
@@ -29305,7 +29306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>121</v>
       </c>
@@ -29349,7 +29350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>121</v>
       </c>
@@ -29393,7 +29394,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>121</v>
       </c>
@@ -29437,7 +29438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>121</v>
       </c>
@@ -29481,7 +29482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>121</v>
       </c>
@@ -29525,7 +29526,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>121</v>
       </c>
@@ -29569,7 +29570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>121</v>
       </c>
@@ -29613,7 +29614,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>121</v>
       </c>
@@ -29657,7 +29658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>121</v>
       </c>
@@ -29701,7 +29702,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>121</v>
       </c>
@@ -29745,7 +29746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>121</v>
       </c>
@@ -29789,7 +29790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>121</v>
       </c>
@@ -29833,7 +29834,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>121</v>
       </c>
@@ -29877,7 +29878,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>121</v>
       </c>
@@ -29921,7 +29922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>121</v>
       </c>
@@ -29965,7 +29966,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>121</v>
       </c>
@@ -30009,7 +30010,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>121</v>
       </c>
@@ -30053,7 +30054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>121</v>
       </c>
@@ -30097,7 +30098,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>121</v>
       </c>
@@ -30141,7 +30142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>121</v>
       </c>
@@ -30185,7 +30186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>121</v>
       </c>
@@ -30229,7 +30230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>121</v>
       </c>
@@ -30273,7 +30274,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>121</v>
       </c>
@@ -30317,7 +30318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>121</v>
       </c>
@@ -30361,7 +30362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>121</v>
       </c>
@@ -30405,7 +30406,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>121</v>
       </c>
@@ -30449,7 +30450,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>121</v>
       </c>
@@ -30493,7 +30494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>121</v>
       </c>
@@ -30537,7 +30538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>121</v>
       </c>
@@ -30581,7 +30582,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>121</v>
       </c>
@@ -30625,7 +30626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>121</v>
       </c>
@@ -30669,7 +30670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>121</v>
       </c>
@@ -30713,7 +30714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>121</v>
       </c>
@@ -30757,7 +30758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>121</v>
       </c>
@@ -30801,7 +30802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>121</v>
       </c>
@@ -30845,7 +30846,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>121</v>
       </c>
@@ -30889,7 +30890,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>121</v>
       </c>
@@ -30933,7 +30934,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>121</v>
       </c>
@@ -30977,7 +30978,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>121</v>
       </c>
@@ -31021,7 +31022,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>121</v>
       </c>
@@ -31065,7 +31066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>121</v>
       </c>
@@ -31109,7 +31110,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>121</v>
       </c>
@@ -31153,7 +31154,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>121</v>
       </c>
@@ -31197,7 +31198,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>121</v>
       </c>
@@ -31241,7 +31242,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>121</v>
       </c>
@@ -31285,7 +31286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>121</v>
       </c>
@@ -31329,7 +31330,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>121</v>
       </c>
@@ -31373,7 +31374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>121</v>
       </c>
@@ -31417,7 +31418,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>121</v>
       </c>
@@ -31461,7 +31462,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>121</v>
       </c>
@@ -31505,7 +31506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>121</v>
       </c>
@@ -31549,7 +31550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>121</v>
       </c>
@@ -31593,7 +31594,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>121</v>
       </c>
@@ -31637,7 +31638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>121</v>
       </c>
@@ -31681,7 +31682,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>121</v>
       </c>
@@ -31725,7 +31726,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>121</v>
       </c>
@@ -31769,7 +31770,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>121</v>
       </c>
@@ -31813,7 +31814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>121</v>
       </c>
@@ -31857,7 +31858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>121</v>
       </c>
@@ -31901,7 +31902,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>121</v>
       </c>
@@ -31945,7 +31946,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>121</v>
       </c>
@@ -31989,7 +31990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>121</v>
       </c>
@@ -32033,7 +32034,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>121</v>
       </c>
@@ -32077,7 +32078,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>121</v>
       </c>
@@ -32121,7 +32122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>121</v>
       </c>
@@ -32165,7 +32166,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>121</v>
       </c>
@@ -32209,7 +32210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>121</v>
       </c>
@@ -32253,7 +32254,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>121</v>
       </c>
@@ -32297,7 +32298,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>121</v>
       </c>
@@ -32341,7 +32342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>121</v>
       </c>
@@ -32385,7 +32386,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>121</v>
       </c>
@@ -32429,7 +32430,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>121</v>
       </c>
@@ -32473,7 +32474,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>121</v>
       </c>
@@ -32517,7 +32518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>121</v>
       </c>
@@ -32561,7 +32562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>121</v>
       </c>
@@ -32605,7 +32606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>121</v>
       </c>
@@ -32649,7 +32650,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>121</v>
       </c>
@@ -32693,7 +32694,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>121</v>
       </c>
@@ -32737,7 +32738,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>121</v>
       </c>
@@ -32781,7 +32782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>121</v>
       </c>
@@ -32825,7 +32826,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>121</v>
       </c>
@@ -32869,7 +32870,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>121</v>
       </c>
@@ -32913,7 +32914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>121</v>
       </c>
@@ -32957,7 +32958,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>121</v>
       </c>
@@ -33001,7 +33002,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>121</v>
       </c>
@@ -33045,7 +33046,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>121</v>
       </c>
@@ -33089,7 +33090,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>121</v>
       </c>
@@ -33133,7 +33134,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>121</v>
       </c>
@@ -33177,7 +33178,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>121</v>
       </c>
@@ -33221,7 +33222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>121</v>
       </c>
@@ -33265,7 +33266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>121</v>
       </c>
@@ -33309,7 +33310,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>121</v>
       </c>
@@ -33353,7 +33354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>121</v>
       </c>
@@ -33397,7 +33398,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>121</v>
       </c>
@@ -33441,7 +33442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>121</v>
       </c>
@@ -33485,7 +33486,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>121</v>
       </c>
@@ -33529,7 +33530,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>121</v>
       </c>
@@ -33573,7 +33574,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>121</v>
       </c>
@@ -33617,7 +33618,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>121</v>
       </c>
@@ -33661,7 +33662,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>121</v>
       </c>
@@ -33705,7 +33706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>121</v>
       </c>
@@ -33749,7 +33750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>121</v>
       </c>
@@ -33793,7 +33794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>121</v>
       </c>
@@ -33837,7 +33838,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>121</v>
       </c>
@@ -33881,7 +33882,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>121</v>
       </c>
@@ -33925,7 +33926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>121</v>
       </c>
@@ -33969,7 +33970,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>121</v>
       </c>
@@ -34013,7 +34014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>121</v>
       </c>
@@ -34057,7 +34058,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>121</v>
       </c>
@@ -34101,7 +34102,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>121</v>
       </c>
@@ -34145,7 +34146,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>121</v>
       </c>
@@ -34189,7 +34190,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>121</v>
       </c>
@@ -34233,7 +34234,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>121</v>
       </c>
@@ -34277,7 +34278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>121</v>
       </c>
@@ -34321,7 +34322,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>121</v>
       </c>
@@ -34365,7 +34366,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>121</v>
       </c>
@@ -34409,7 +34410,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>121</v>
       </c>
@@ -34453,7 +34454,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>121</v>
       </c>
@@ -34497,7 +34498,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>121</v>
       </c>
@@ -34541,7 +34542,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>121</v>
       </c>
@@ -34585,7 +34586,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>121</v>
       </c>
@@ -34673,7 +34674,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>121</v>
       </c>
@@ -34717,7 +34718,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>121</v>
       </c>
@@ -34761,7 +34762,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>121</v>
       </c>
@@ -34805,7 +34806,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>121</v>
       </c>
@@ -34849,7 +34850,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>121</v>
       </c>
@@ -34893,7 +34894,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>121</v>
       </c>
@@ -34937,7 +34938,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>121</v>
       </c>
@@ -34981,7 +34982,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>121</v>
       </c>
@@ -35025,7 +35026,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>121</v>
       </c>
@@ -35069,7 +35070,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>121</v>
       </c>
@@ -35113,7 +35114,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>121</v>
       </c>
@@ -35157,7 +35158,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>121</v>
       </c>
@@ -35201,7 +35202,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>121</v>
       </c>
@@ -35245,7 +35246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>121</v>
       </c>
@@ -35289,7 +35290,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>121</v>
       </c>
@@ -35333,7 +35334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>121</v>
       </c>
@@ -35377,7 +35378,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>121</v>
       </c>
@@ -35421,7 +35422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -35465,7 +35466,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>121</v>
       </c>
@@ -35509,7 +35510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>121</v>
       </c>
@@ -35553,7 +35554,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>121</v>
       </c>
@@ -35597,7 +35598,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>121</v>
       </c>
@@ -35641,7 +35642,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>121</v>
       </c>
@@ -35685,7 +35686,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>121</v>
       </c>
@@ -35729,7 +35730,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>121</v>
       </c>
@@ -35773,7 +35774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>121</v>
       </c>
@@ -35817,7 +35818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>121</v>
       </c>
@@ -35861,7 +35862,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>121</v>
       </c>
@@ -35905,7 +35906,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>121</v>
       </c>
@@ -35949,7 +35950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>121</v>
       </c>
@@ -35993,7 +35994,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>121</v>
       </c>
@@ -36037,7 +36038,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>121</v>
       </c>
@@ -36081,7 +36082,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>121</v>
       </c>
@@ -36125,7 +36126,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>121</v>
       </c>
@@ -36169,7 +36170,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>121</v>
       </c>
@@ -36213,7 +36214,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>121</v>
       </c>
@@ -36257,7 +36258,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>121</v>
       </c>
@@ -36301,7 +36302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>121</v>
       </c>
@@ -36345,7 +36346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>121</v>
       </c>
@@ -36389,7 +36390,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>121</v>
       </c>
@@ -36433,7 +36434,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>121</v>
       </c>
@@ -36477,7 +36478,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>121</v>
       </c>
@@ -36521,7 +36522,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>121</v>
       </c>
@@ -36565,7 +36566,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>121</v>
       </c>
@@ -36609,7 +36610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>121</v>
       </c>
@@ -36653,7 +36654,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>121</v>
       </c>
@@ -36697,7 +36698,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>121</v>
       </c>
@@ -36741,7 +36742,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>121</v>
       </c>
@@ -36785,7 +36786,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>121</v>
       </c>
@@ -36829,7 +36830,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>121</v>
       </c>
@@ -36873,7 +36874,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>121</v>
       </c>
@@ -36917,7 +36918,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>121</v>
       </c>
@@ -36961,7 +36962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>121</v>
       </c>
@@ -37005,7 +37006,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>121</v>
       </c>
@@ -37049,7 +37050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>121</v>
       </c>
@@ -37093,7 +37094,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>121</v>
       </c>
@@ -37137,7 +37138,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>121</v>
       </c>
@@ -37181,7 +37182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>121</v>
       </c>
@@ -37225,7 +37226,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>121</v>
       </c>
@@ -37269,7 +37270,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>121</v>
       </c>
@@ -37313,7 +37314,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>121</v>
       </c>
@@ -37357,7 +37358,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>121</v>
       </c>
@@ -37401,7 +37402,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>121</v>
       </c>
@@ -37445,7 +37446,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>121</v>
       </c>
@@ -37489,7 +37490,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>121</v>
       </c>
@@ -37533,7 +37534,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>121</v>
       </c>
@@ -37577,7 +37578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>121</v>
       </c>
@@ -37621,7 +37622,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>121</v>
       </c>
@@ -37665,7 +37666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>121</v>
       </c>
@@ -37709,7 +37710,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>121</v>
       </c>
@@ -37753,7 +37754,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>121</v>
       </c>
@@ -37797,7 +37798,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>121</v>
       </c>
@@ -37841,7 +37842,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>121</v>
       </c>
@@ -37885,7 +37886,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>121</v>
       </c>
@@ -37929,7 +37930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>121</v>
       </c>
@@ -37973,7 +37974,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>121</v>
       </c>
@@ -38017,7 +38018,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>121</v>
       </c>
@@ -38061,7 +38062,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>121</v>
       </c>
@@ -38105,7 +38106,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>121</v>
       </c>
@@ -38149,7 +38150,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>121</v>
       </c>
@@ -38193,7 +38194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>121</v>
       </c>
@@ -38237,7 +38238,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>121</v>
       </c>
@@ -38281,7 +38282,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>121</v>
       </c>
@@ -38325,7 +38326,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>121</v>
       </c>
@@ -38369,7 +38370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>121</v>
       </c>
@@ -38413,7 +38414,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>121</v>
       </c>
@@ -38457,7 +38458,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>121</v>
       </c>
@@ -38501,7 +38502,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>121</v>
       </c>
@@ -38545,7 +38546,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>121</v>
       </c>
@@ -38589,7 +38590,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>121</v>
       </c>
@@ -38633,7 +38634,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>121</v>
       </c>
@@ -38677,7 +38678,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>121</v>
       </c>
@@ -38721,7 +38722,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>121</v>
       </c>
@@ -38765,7 +38766,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>121</v>
       </c>
@@ -38809,7 +38810,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>121</v>
       </c>
@@ -38853,7 +38854,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>121</v>
       </c>
@@ -38897,7 +38898,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>121</v>
       </c>
@@ -38941,7 +38942,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="849" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>121</v>
       </c>
@@ -38985,7 +38986,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="850" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>121</v>
       </c>
@@ -39029,7 +39030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="851" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>121</v>
       </c>
@@ -39073,7 +39074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="852" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>121</v>
       </c>
@@ -39117,7 +39118,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="853" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>121</v>
       </c>
@@ -39161,7 +39162,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="854" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>121</v>
       </c>
@@ -39205,7 +39206,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="855" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>121</v>
       </c>
@@ -39249,7 +39250,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="856" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>121</v>
       </c>
@@ -39293,7 +39294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="857" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>121</v>
       </c>
@@ -39337,7 +39338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="858" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>121</v>
       </c>
@@ -39381,7 +39382,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="859" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>121</v>
       </c>
@@ -39425,7 +39426,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="860" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>121</v>
       </c>
@@ -39469,7 +39470,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="861" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>121</v>
       </c>
@@ -39513,7 +39514,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="862" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>121</v>
       </c>
@@ -39557,7 +39558,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="863" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>121</v>
       </c>
@@ -39601,7 +39602,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="864" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>121</v>
       </c>
@@ -39645,7 +39646,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>121</v>
       </c>
@@ -39689,7 +39690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>121</v>
       </c>
@@ -39733,7 +39734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>121</v>
       </c>
@@ -39777,7 +39778,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>121</v>
       </c>
@@ -39821,7 +39822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>121</v>
       </c>
@@ -39865,7 +39866,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>121</v>
       </c>
@@ -39909,7 +39910,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>121</v>
       </c>
@@ -39953,7 +39954,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>121</v>
       </c>
@@ -39997,7 +39998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>121</v>
       </c>
@@ -40041,7 +40042,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>121</v>
       </c>
@@ -40085,7 +40086,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>121</v>
       </c>
@@ -40129,7 +40130,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>121</v>
       </c>
@@ -40173,7 +40174,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>121</v>
       </c>
@@ -40217,7 +40218,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>121</v>
       </c>
@@ -40261,7 +40262,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>121</v>
       </c>
@@ -40305,7 +40306,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>121</v>
       </c>
@@ -40349,7 +40350,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="881" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>121</v>
       </c>
@@ -40393,7 +40394,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="882" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>121</v>
       </c>
@@ -40437,7 +40438,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="883" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>121</v>
       </c>
@@ -40481,7 +40482,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="884" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>121</v>
       </c>
@@ -40526,6 +40527,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O884" xr:uid="{0C0AB408-1871-4816-B544-911864576FF3}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="19"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>